--- a/output/CANVAS_13106979000129.xlsx
+++ b/output/CANVAS_13106979000129.xlsx
@@ -1681,10 +1681,10 @@
         <v>44165</v>
       </c>
       <c r="B118">
-        <v>2.11575681</v>
+        <v>2.10964485</v>
       </c>
       <c r="C118">
-        <v>0.03553464557667452</v>
+        <v>0.03350331042494981</v>
       </c>
     </row>
   </sheetData>

--- a/output/CANVAS_13106979000129.xlsx
+++ b/output/CANVAS_13106979000129.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CANVAS ENDURO III FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40633</v>
       </c>
@@ -411,1280 +405,932 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40663</v>
       </c>
       <c r="B3">
         <v>0.005455489999999896</v>
       </c>
-      <c r="C3">
-        <v>0.005455489999999896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40694</v>
       </c>
       <c r="B4">
-        <v>0.02390322</v>
-      </c>
-      <c r="C4">
         <v>0.01834763466257483</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40724</v>
       </c>
       <c r="B5">
-        <v>0.02116260999999997</v>
-      </c>
-      <c r="C5">
         <v>-0.002676629926019802</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40755</v>
       </c>
       <c r="B6">
-        <v>0.01728477000000006</v>
-      </c>
-      <c r="C6">
         <v>-0.003797475506863601</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40786</v>
       </c>
       <c r="B7">
-        <v>0.1323014499999999</v>
-      </c>
-      <c r="C7">
         <v>0.1130624220394059</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40816</v>
       </c>
       <c r="B8">
-        <v>0.16391402</v>
-      </c>
-      <c r="C8">
         <v>0.02791886383259512</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40847</v>
       </c>
       <c r="B9">
-        <v>0.18303939</v>
-      </c>
-      <c r="C9">
         <v>0.01643194400218673</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40877</v>
       </c>
       <c r="B10">
-        <v>0.2076257399999999</v>
-      </c>
-      <c r="C10">
         <v>0.02078235957976005</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40908</v>
       </c>
       <c r="B11">
-        <v>0.2041173999999999</v>
-      </c>
-      <c r="C11">
         <v>-0.002905155035863971</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40939</v>
       </c>
       <c r="B12">
-        <v>0.23757881</v>
-      </c>
-      <c r="C12">
         <v>0.02778915909694524</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40968</v>
       </c>
       <c r="B13">
-        <v>0.2638155099999999</v>
-      </c>
-      <c r="C13">
         <v>0.02120002361708173</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40999</v>
       </c>
       <c r="B14">
-        <v>0.28893575</v>
-      </c>
-      <c r="C14">
         <v>0.01987650871605462</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41029</v>
       </c>
       <c r="B15">
-        <v>0.3201337200000001</v>
-      </c>
-      <c r="C15">
         <v>0.02420444153248136</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41060</v>
       </c>
       <c r="B16">
-        <v>0.3412444699999999</v>
-      </c>
-      <c r="C16">
         <v>0.01599137244975446</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41090</v>
       </c>
       <c r="B17">
-        <v>0.3723936699999999</v>
-      </c>
-      <c r="C17">
         <v>0.02322410320916357</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41121</v>
       </c>
       <c r="B18">
-        <v>0.4087114000000001</v>
-      </c>
-      <c r="C18">
         <v>0.02646305560415496</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41152</v>
       </c>
       <c r="B19">
-        <v>0.42748092</v>
-      </c>
-      <c r="C19">
         <v>0.01332389302734405</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41182</v>
       </c>
       <c r="B20">
-        <v>0.43895756</v>
-      </c>
-      <c r="C20">
         <v>0.008039785218284967</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41213</v>
       </c>
       <c r="B21">
-        <v>0.47400032</v>
-      </c>
-      <c r="C21">
         <v>0.02435287945531917</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41243</v>
       </c>
       <c r="B22">
-        <v>0.46590452</v>
-      </c>
-      <c r="C22">
         <v>-0.005492400435842537</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41274</v>
       </c>
       <c r="B23">
-        <v>0.50073608</v>
-      </c>
-      <c r="C23">
         <v>0.02376113827659121</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41305</v>
       </c>
       <c r="B24">
-        <v>0.4942453</v>
-      </c>
-      <c r="C24">
         <v>-0.004325064271127554</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41333</v>
       </c>
       <c r="B25">
-        <v>0.48637591</v>
-      </c>
-      <c r="C25">
         <v>-0.005266464615950261</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41364</v>
       </c>
       <c r="B26">
-        <v>0.4711280600000001</v>
-      </c>
-      <c r="C26">
         <v>-0.01025840764601726</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41394</v>
       </c>
       <c r="B27">
-        <v>0.5069134500000001</v>
-      </c>
-      <c r="C27">
         <v>0.02432513590965013</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41425</v>
       </c>
       <c r="B28">
-        <v>0.4289600600000001</v>
-      </c>
-      <c r="C28">
         <v>-0.05173050250497135</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41455</v>
       </c>
       <c r="B29">
-        <v>0.3921623999999999</v>
-      </c>
-      <c r="C29">
         <v>-0.0257513565494617</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41486</v>
       </c>
       <c r="B30">
-        <v>0.4102225100000001</v>
-      </c>
-      <c r="C30">
         <v>0.01297270347195134</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41517</v>
       </c>
       <c r="B31">
-        <v>0.3904698</v>
-      </c>
-      <c r="C31">
         <v>-0.01400680379155206</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41547</v>
       </c>
       <c r="B32">
-        <v>0.39950358</v>
-      </c>
-      <c r="C32">
         <v>0.00649692643450428</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41578</v>
       </c>
       <c r="B33">
-        <v>0.39101333</v>
-      </c>
-      <c r="C33">
         <v>-0.006066615420876498</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41608</v>
       </c>
       <c r="B34">
-        <v>0.3897088399999999</v>
-      </c>
-      <c r="C34">
         <v>-0.0009377983459009087</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41639</v>
       </c>
       <c r="B35">
-        <v>0.4284886699999999</v>
-      </c>
-      <c r="C35">
         <v>0.02790500346820846</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41670</v>
       </c>
       <c r="B36">
-        <v>0.3626609000000001</v>
-      </c>
-      <c r="C36">
         <v>-0.04608210858263218</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41698</v>
       </c>
       <c r="B37">
-        <v>0.4139069</v>
-      </c>
-      <c r="C37">
         <v>0.03760730200741791</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41729</v>
       </c>
       <c r="B38">
-        <v>0.42588804</v>
-      </c>
-      <c r="C38">
         <v>0.008473782821202702</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41759</v>
       </c>
       <c r="B39">
-        <v>0.45198965</v>
-      </c>
-      <c r="C39">
         <v>0.01830551156036075</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41790</v>
       </c>
       <c r="B40">
-        <v>0.51709451</v>
-      </c>
-      <c r="C40">
         <v>0.04483837746364094</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41820</v>
       </c>
       <c r="B41">
-        <v>0.5462076600000001</v>
-      </c>
-      <c r="C41">
         <v>0.01919007010314755</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41851</v>
       </c>
       <c r="B42">
-        <v>0.5511738799999999</v>
-      </c>
-      <c r="C42">
         <v>0.003211871295476509</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41882</v>
       </c>
       <c r="B43">
-        <v>0.5594076299999999</v>
-      </c>
-      <c r="C43">
         <v>0.005308076745077717</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41912</v>
       </c>
       <c r="B44">
-        <v>0.51526356</v>
-      </c>
-      <c r="C44">
         <v>-0.02830823009375683</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41943</v>
       </c>
       <c r="B45">
-        <v>0.49412481</v>
-      </c>
-      <c r="C45">
         <v>-0.01395054336289847</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41973</v>
       </c>
       <c r="B46">
-        <v>0.50643251</v>
-      </c>
-      <c r="C46">
         <v>0.008237397517012024</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42004</v>
       </c>
       <c r="B47">
-        <v>0.5087783400000001</v>
-      </c>
-      <c r="C47">
         <v>0.001557208825770928</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42035</v>
       </c>
       <c r="B48">
-        <v>0.5455344099999999</v>
-      </c>
-      <c r="C48">
         <v>0.02436147777678177</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42063</v>
       </c>
       <c r="B49">
-        <v>0.6008987800000001</v>
-      </c>
-      <c r="C49">
         <v>0.0358221529341427</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42094</v>
       </c>
       <c r="B50">
-        <v>0.6185531900000001</v>
-      </c>
-      <c r="C50">
         <v>0.01102781151472931</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42124</v>
       </c>
       <c r="B51">
-        <v>0.65807339</v>
-      </c>
-      <c r="C51">
         <v>0.0244169918197128</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42155</v>
       </c>
       <c r="B52">
-        <v>0.6900272199999999</v>
-      </c>
-      <c r="C52">
         <v>0.01927166203421193</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42185</v>
       </c>
       <c r="B53">
-        <v>0.71682241</v>
-      </c>
-      <c r="C53">
         <v>0.01585488664496193</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42216</v>
       </c>
       <c r="B54">
-        <v>0.7384221900000001</v>
-      </c>
-      <c r="C54">
         <v>0.0125812546913342</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42247</v>
       </c>
       <c r="B55">
-        <v>0.74246379</v>
-      </c>
-      <c r="C55">
         <v>0.002324866780491153</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42277</v>
       </c>
       <c r="B56">
-        <v>0.74193335</v>
-      </c>
-      <c r="C56">
         <v>-0.0003044195254122695</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42308</v>
       </c>
       <c r="B57">
-        <v>0.7652135799999999</v>
-      </c>
-      <c r="C57">
         <v>0.01336459285310765</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42338</v>
       </c>
       <c r="B58">
-        <v>0.79964195</v>
-      </c>
-      <c r="C58">
         <v>0.01950379851485162</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42369</v>
       </c>
       <c r="B59">
-        <v>0.8238581199999999</v>
-      </c>
-      <c r="C59">
         <v>0.01345610442121559</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42400</v>
       </c>
       <c r="B60">
-        <v>0.95392469</v>
-      </c>
-      <c r="C60">
         <v>0.07131397369878756</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42429</v>
       </c>
       <c r="B61">
-        <v>0.9941543399999999</v>
-      </c>
-      <c r="C61">
         <v>0.02058915075176193</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42460</v>
       </c>
       <c r="B62">
-        <v>0.9771076599999999</v>
-      </c>
-      <c r="C62">
         <v>-0.008548325301641402</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42490</v>
       </c>
       <c r="B63">
-        <v>1.04923697</v>
-      </c>
-      <c r="C63">
         <v>0.03648223688537011</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42521</v>
       </c>
       <c r="B64">
-        <v>1.03937024</v>
-      </c>
-      <c r="C64">
         <v>-0.004814831151518928</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42551</v>
       </c>
       <c r="B65">
-        <v>1.07939146</v>
-      </c>
-      <c r="C65">
         <v>0.01962430323588538</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42582</v>
       </c>
       <c r="B66">
-        <v>1.11574967</v>
-      </c>
-      <c r="C66">
         <v>0.01748502420030129</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42613</v>
       </c>
       <c r="B67">
-        <v>1.13574188</v>
-      </c>
-      <c r="C67">
         <v>0.009449232243056382</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42643</v>
       </c>
       <c r="B68">
-        <v>1.20222528</v>
-      </c>
-      <c r="C68">
         <v>0.03112894897205476</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42674</v>
       </c>
       <c r="B69">
-        <v>1.21471415</v>
-      </c>
-      <c r="C69">
         <v>0.00567102290279764</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42704</v>
       </c>
       <c r="B70">
-        <v>1.18162957</v>
-      </c>
-      <c r="C70">
         <v>-0.01493853281246238</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42735</v>
       </c>
       <c r="B71">
-        <v>1.22102349</v>
-      </c>
-      <c r="C71">
         <v>0.01805710765095636</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42766</v>
       </c>
       <c r="B72">
-        <v>1.25652323</v>
-      </c>
-      <c r="C72">
         <v>0.0159835049740964</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42794</v>
       </c>
       <c r="B73">
-        <v>1.33269426</v>
-      </c>
-      <c r="C73">
         <v>0.03375592548187489</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42825</v>
       </c>
       <c r="B74">
-        <v>1.38433398</v>
-      </c>
-      <c r="C74">
         <v>0.02213737174455099</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42855</v>
       </c>
       <c r="B75">
-        <v>1.41348129</v>
-      </c>
-      <c r="C75">
         <v>0.01222450807835229</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42886</v>
       </c>
       <c r="B76">
-        <v>1.29021751</v>
-      </c>
-      <c r="C76">
         <v>-0.05107302074838116</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42916</v>
       </c>
       <c r="B77">
-        <v>1.32226966</v>
-      </c>
-      <c r="C77">
         <v>0.01399524274879882</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42947</v>
       </c>
       <c r="B78">
-        <v>1.39383498</v>
-      </c>
-      <c r="C78">
         <v>0.03081697239243097</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42978</v>
       </c>
       <c r="B79">
-        <v>1.4508095</v>
-      </c>
-      <c r="C79">
         <v>0.02380052112029896</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43008</v>
       </c>
       <c r="B80">
-        <v>1.50562542</v>
-      </c>
-      <c r="C80">
         <v>0.02236645483869704</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43039</v>
       </c>
       <c r="B81">
-        <v>1.49656956</v>
-      </c>
-      <c r="C81">
         <v>-0.003614211417123814</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43069</v>
       </c>
       <c r="B82">
-        <v>1.49170524</v>
-      </c>
-      <c r="C82">
         <v>-0.001948401549845213</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43100</v>
       </c>
       <c r="B83">
-        <v>1.53629479</v>
-      </c>
-      <c r="C83">
         <v>0.01789519453753696</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43131</v>
       </c>
       <c r="B84">
-        <v>1.60565332</v>
-      </c>
-      <c r="C84">
         <v>0.02734639927246008</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43159</v>
       </c>
       <c r="B85">
-        <v>1.63140384</v>
-      </c>
-      <c r="C85">
         <v>0.009882557975901429</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43190</v>
       </c>
       <c r="B86">
-        <v>1.64809388</v>
-      </c>
-      <c r="C86">
         <v>0.00634263724415618</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43220</v>
       </c>
       <c r="B87">
-        <v>1.65302275</v>
-      </c>
-      <c r="C87">
         <v>0.001861289751555306</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43251</v>
       </c>
       <c r="B88">
-        <v>1.57570034</v>
-      </c>
-      <c r="C88">
         <v>-0.0291450233511944</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43281</v>
       </c>
       <c r="B89">
-        <v>1.57803388</v>
-      </c>
-      <c r="C89">
         <v>0.0009059827200239567</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43312</v>
       </c>
       <c r="B90">
-        <v>1.62107483</v>
-      </c>
-      <c r="C90">
         <v>0.01669526158438228</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43343</v>
       </c>
       <c r="B91">
-        <v>1.58088271</v>
-      </c>
-      <c r="C91">
         <v>-0.01533421310218752</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43373</v>
       </c>
       <c r="B92">
-        <v>1.58930262</v>
-      </c>
-      <c r="C92">
         <v>0.003262414819308113</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43404</v>
       </c>
       <c r="B93">
-        <v>1.70071278</v>
-      </c>
-      <c r="C93">
         <v>0.04302709120960135</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43434</v>
       </c>
       <c r="B94">
-        <v>1.70202353</v>
-      </c>
-      <c r="C94">
         <v>0.0004853348381608225</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43465</v>
       </c>
       <c r="B95">
-        <v>1.71490149</v>
-      </c>
-      <c r="C95">
         <v>0.004766042877502263</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43496</v>
       </c>
       <c r="B96">
-        <v>1.8663422</v>
-      </c>
-      <c r="C96">
         <v>0.05578129098157447</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43524</v>
       </c>
       <c r="B97">
-        <v>1.85470087</v>
-      </c>
-      <c r="C97">
         <v>-0.004061388762304885</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43555</v>
       </c>
       <c r="B98">
-        <v>1.81507833</v>
-      </c>
-      <c r="C98">
         <v>-0.01387975196154256</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43585</v>
       </c>
       <c r="B99">
-        <v>1.84955339</v>
-      </c>
-      <c r="C99">
         <v>0.01224657219396108</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43616</v>
       </c>
       <c r="B100">
-        <v>1.88448453</v>
-      </c>
-      <c r="C100">
         <v>0.01225846131628372</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43646</v>
       </c>
       <c r="B101">
-        <v>1.96885855</v>
-      </c>
-      <c r="C101">
         <v>0.02925098717724794</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43677</v>
       </c>
       <c r="B102">
-        <v>2.00477899</v>
-      </c>
-      <c r="C102">
         <v>0.01209907423848122</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43708</v>
       </c>
       <c r="B103">
-        <v>1.97790253</v>
-      </c>
-      <c r="C103">
         <v>-0.008944571327690221</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43738</v>
       </c>
       <c r="B104">
-        <v>1.98952264</v>
-      </c>
-      <c r="C104">
         <v>0.003902112269604796</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43769</v>
       </c>
       <c r="B105">
-        <v>2.04888194</v>
-      </c>
-      <c r="C105">
         <v>0.01985577871388844</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43799</v>
       </c>
       <c r="B106">
-        <v>2.01712869</v>
-      </c>
-      <c r="C106">
         <v>-0.01041471943646333</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43830</v>
       </c>
       <c r="B107">
-        <v>2.0940286</v>
-      </c>
-      <c r="C107">
         <v>0.02548777924351664</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43861</v>
       </c>
       <c r="B108">
-        <v>2.04466545</v>
-      </c>
-      <c r="C108">
         <v>-0.01595432892895687</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43890</v>
       </c>
       <c r="B109">
-        <v>1.96256873</v>
-      </c>
-      <c r="C109">
         <v>-0.02696411850438285</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43921</v>
       </c>
       <c r="B110">
-        <v>1.84436155</v>
-      </c>
-      <c r="C110">
         <v>-0.03990023212052207</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43951</v>
       </c>
       <c r="B111">
-        <v>1.90753213</v>
-      </c>
-      <c r="C111">
         <v>0.0222090542603488</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43982</v>
       </c>
       <c r="B112">
-        <v>2.01967577</v>
-      </c>
-      <c r="C112">
         <v>0.03857004324832691</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>44012</v>
       </c>
       <c r="B113">
-        <v>2.08386602</v>
-      </c>
-      <c r="C113">
         <v>0.02125733187573298</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>44043</v>
       </c>
       <c r="B114">
-        <v>2.169046</v>
-      </c>
-      <c r="C114">
         <v>0.02762116753697352</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>44074</v>
       </c>
       <c r="B115">
-        <v>2.11985927</v>
-      </c>
-      <c r="C115">
         <v>-0.01552098959750026</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>44104</v>
       </c>
       <c r="B116">
-        <v>2.04573709</v>
-      </c>
-      <c r="C116">
         <v>-0.02375818060537083</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>44135</v>
       </c>
       <c r="B117">
-        <v>2.00883879</v>
-      </c>
-      <c r="C117">
         <v>-0.01211473574693867</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>44165</v>
       </c>
       <c r="B118">
-        <v>2.10964485</v>
-      </c>
-      <c r="C118">
-        <v>0.03350331042494981</v>
+        <v>0.02663604652610863</v>
       </c>
     </row>
   </sheetData>
